--- a/study2/presentation_for_paper/study2_sample_demographic.xlsx
+++ b/study2/presentation_for_paper/study2_sample_demographic.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{E42D23AE-EC89-4BC8-8F68-ED2C60792E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5D2FFCD-B196-4BC3-B86F-A63E221B9312}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="8_{E42D23AE-EC89-4BC8-8F68-ED2C60792E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AC830CC-49B8-4C71-8E9B-1B756055D7CE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{E1A2D150-8E9C-4689-9F4D-2A0EF7129870}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{E1A2D150-8E9C-4689-9F4D-2A0EF7129870}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="original" sheetId="1" r:id="rId1"/>
+    <sheet name="stmd" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
   <si>
     <t>Measure</t>
     <phoneticPr fontId="2"/>
@@ -251,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -288,6 +290,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -297,7 +367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -313,32 +383,77 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -422,6 +537,76 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491159BB-AE96-91D6-7B93-E824D05E2AB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="222250" y="0"/>
+          <a:ext cx="6851650" cy="5226050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -744,7 +929,7 @@
   <dimension ref="C2:H30"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I2" sqref="B2:I27"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -754,36 +939,36 @@
     <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.9140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="0.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" style="1" customWidth="1"/>
     <col min="7" max="8" width="14.58203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="0.58203125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:8" ht="3.5" customHeight="1"/>
-    <row r="3" spans="3:8" s="10" customFormat="1" ht="32" customHeight="1">
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="3:8" s="9" customFormat="1" ht="32" customHeight="1">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -792,30 +977,30 @@
       <c r="G4" s="1">
         <v>53</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f>G4/104</f>
         <v>0.50961538461538458</v>
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="2">
         <v>51</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f t="shared" ref="H5" si="0">G5/104</f>
         <v>0.49038461538461536</v>
       </c>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -824,72 +1009,72 @@
       <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f>G6/104</f>
         <v>4.807692307692308E-2</v>
       </c>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="1">
         <v>35</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f t="shared" ref="H7" si="1">G7/104</f>
         <v>0.33653846153846156</v>
       </c>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="1">
         <v>43</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f>G8/104</f>
         <v>0.41346153846153844</v>
       </c>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="1">
         <v>16</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <f t="shared" ref="H9" si="2">G9/104</f>
         <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="2">
         <v>5</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <f>G10/104</f>
         <v>4.807692307692308E-2</v>
       </c>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -898,14 +1083,14 @@
       <c r="G11" s="1">
         <v>70</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <f>G11/104</f>
         <v>0.67307692307692313</v>
       </c>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
@@ -913,16 +1098,16 @@
         <f>104-70</f>
         <v>34</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <f t="shared" ref="H12:H26" si="3">G12/104</f>
         <v>0.32692307692307693</v>
       </c>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -931,72 +1116,72 @@
       <c r="G13" s="1">
         <v>22</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <f>G13/104</f>
         <v>0.21153846153846154</v>
       </c>
     </row>
     <row r="14" spans="3:8">
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="1">
         <v>11</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <f t="shared" si="3"/>
         <v>0.10576923076923077</v>
       </c>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="1">
         <v>48</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <f t="shared" si="3"/>
         <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="1">
         <v>21</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <f t="shared" si="3"/>
         <v>0.20192307692307693</v>
       </c>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="2">
         <v>2</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <f t="shared" si="3"/>
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1005,42 +1190,42 @@
       <c r="G18" s="1">
         <v>11</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <f>G18/104</f>
         <v>0.10576923076923077</v>
       </c>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1">
         <v>9</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <f t="shared" si="3"/>
         <v>8.6538461538461536E-2</v>
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="1">
         <v>55</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <f>G20/104</f>
         <v>0.52884615384615385</v>
       </c>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="4" t="s">
         <v>17</v>
       </c>
@@ -1048,16 +1233,16 @@
         <f>104-SUM(G18:G20)</f>
         <v>29</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <f t="shared" si="3"/>
         <v>0.27884615384615385</v>
       </c>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -1066,58 +1251,58 @@
       <c r="G22" s="1">
         <v>7</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <f>G22/104</f>
         <v>6.7307692307692304E-2</v>
       </c>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="13"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="1">
         <v>10</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <f>G23/104</f>
         <v>9.6153846153846159E-2</v>
       </c>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="1">
         <v>26</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="1">
         <v>26</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <f>G25/104</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="4" t="s">
         <v>14</v>
       </c>
@@ -1125,7 +1310,7 @@
       <c r="G26" s="2">
         <v>35</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <f t="shared" si="3"/>
         <v>0.33653846153846156</v>
       </c>
@@ -1151,10 +1336,483 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0040C6F7-BA6F-4300-909A-9C3AEA722F5D}">
+  <dimension ref="C2:H35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="0.4140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.9140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.58203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.58203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:8" ht="3.5" customHeight="1"/>
+    <row r="3" spans="3:8" s="9" customFormat="1" ht="32" customHeight="1">
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18">
+        <v>53</v>
+      </c>
+      <c r="H4" s="19">
+        <f>G4/104</f>
+        <v>0.50961538461538458</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="13"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14">
+        <v>51</v>
+      </c>
+      <c r="H5" s="15">
+        <f t="shared" ref="H5" si="0">G5/104</f>
+        <v>0.49038461538461536</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="10" customHeight="1">
+      <c r="C6" s="13"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14">
+        <v>5</v>
+      </c>
+      <c r="H7" s="15">
+        <f>G7/104</f>
+        <v>4.807692307692308E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="13"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14">
+        <v>35</v>
+      </c>
+      <c r="H8" s="15">
+        <f t="shared" ref="H8" si="1">G8/104</f>
+        <v>0.33653846153846156</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="13"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
+        <v>43</v>
+      </c>
+      <c r="H9" s="15">
+        <f>G9/104</f>
+        <v>0.41346153846153844</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="13"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14">
+        <v>16</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" ref="H10" si="2">G10/104</f>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="13"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
+        <v>5</v>
+      </c>
+      <c r="H11" s="15">
+        <f>G11/104</f>
+        <v>4.807692307692308E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="10" customHeight="1">
+      <c r="C12" s="13"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14">
+        <v>70</v>
+      </c>
+      <c r="H13" s="15">
+        <f>G13/104</f>
+        <v>0.67307692307692313</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="13"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14">
+        <f>104-70</f>
+        <v>34</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" ref="H14:H31" si="3">G14/104</f>
+        <v>0.32692307692307693</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" ht="10" customHeight="1">
+      <c r="C15" s="13"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14">
+        <v>22</v>
+      </c>
+      <c r="H16" s="15">
+        <f>G16/104</f>
+        <v>0.21153846153846154</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="13"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14">
+        <v>11</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="3"/>
+        <v>0.10576923076923077</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="13"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14">
+        <v>48</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="3"/>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="13"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14">
+        <v>21</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="3"/>
+        <v>0.20192307692307693</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="13"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14">
+        <v>2</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="3"/>
+        <v>1.9230769230769232E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="10" customHeight="1">
+      <c r="C21" s="13"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14">
+        <v>11</v>
+      </c>
+      <c r="H22" s="15">
+        <f>G22/104</f>
+        <v>0.10576923076923077</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="13"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14">
+        <v>9</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="3"/>
+        <v>8.6538461538461536E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="13"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14">
+        <v>55</v>
+      </c>
+      <c r="H24" s="15">
+        <f>G24/104</f>
+        <v>0.52884615384615385</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="13"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14">
+        <f>104-SUM(G22:G24)</f>
+        <v>29</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" si="3"/>
+        <v>0.27884615384615385</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="10" customHeight="1">
+      <c r="C26" s="13"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
+        <v>7</v>
+      </c>
+      <c r="H27" s="15">
+        <f>G27/104</f>
+        <v>6.7307692307692304E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14">
+        <v>10</v>
+      </c>
+      <c r="H28" s="15">
+        <f>G28/104</f>
+        <v>9.6153846153846159E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="13"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14">
+        <v>26</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="13"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14">
+        <v>26</v>
+      </c>
+      <c r="H30" s="15">
+        <f>G30/104</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="11"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2">
+        <v>35</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="3"/>
+        <v>0.33653846153846156</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="3.5" customHeight="1"/>
+    <row r="34" spans="3:3">
+      <c r="C34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="G25" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1212CDC-69C2-4858-81AA-3B0B60D863D2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1164,4 +1822,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751D9938-7FC2-4A16-A7F6-AF918CA90E90}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>